--- a/wpms_main/management/static/files/transfer.xlsx
+++ b/wpms_main/management/static/files/transfer.xlsx
@@ -328,7 +328,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,19 +456,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4234</v>
+        <v>312312</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>1313</v>
+        <v>119904</v>
       </c>
       <c r="F4" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>29.17777777777777</v>
+        <v>3633.454545454545</v>
       </c>
     </row>
     <row r="5">
@@ -510,60 +510,26 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>341</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14.12.2023</t>
+          <t>24.01.2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:41</t>
+          <t>14:49</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>43243</v>
+        <v>312312</v>
       </c>
       <c r="E6" t="n">
-        <v>132</v>
+        <v>1443</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Склад: Мациборская Т.В., Цех: Мациборская Т.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>14.12.2023</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>02:08</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>4234</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1341</v>
-      </c>
-      <c r="F7" t="n">
-        <v>23</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Склад: Мациборская Т.В., Цех: Мациборская Т.В.</t>
-        </is>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
